--- a/data/pca/factorExposure/factorExposure_2016-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01548693599483981</v>
+        <v>-0.01757828193644844</v>
       </c>
       <c r="C2">
-        <v>0.05943661440017605</v>
+        <v>0.04235736813988483</v>
       </c>
       <c r="D2">
-        <v>0.04889993861296468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08687854397463669</v>
+      </c>
+      <c r="E2">
+        <v>-0.1122921590596066</v>
+      </c>
+      <c r="F2">
+        <v>0.03934304209659879</v>
+      </c>
+      <c r="G2">
+        <v>0.002006103369793574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03908199600399768</v>
+        <v>-0.02381631091998995</v>
       </c>
       <c r="C3">
-        <v>0.1232678881098323</v>
+        <v>0.06646692976724855</v>
       </c>
       <c r="D3">
-        <v>0.05650193350974227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07512581203490577</v>
+      </c>
+      <c r="E3">
+        <v>-0.08907141314614513</v>
+      </c>
+      <c r="F3">
+        <v>-0.05038349717463179</v>
+      </c>
+      <c r="G3">
+        <v>0.0864637029786261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0622803376543051</v>
+        <v>-0.0620177287551051</v>
       </c>
       <c r="C4">
-        <v>0.06167552020780755</v>
+        <v>0.06303672025824045</v>
       </c>
       <c r="D4">
-        <v>0.04029611278745004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08022221560375098</v>
+      </c>
+      <c r="E4">
+        <v>-0.1057546423999963</v>
+      </c>
+      <c r="F4">
+        <v>-0.02821940092084994</v>
+      </c>
+      <c r="G4">
+        <v>-0.04558237612329594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04357541226654894</v>
+        <v>-0.04075363918519572</v>
       </c>
       <c r="C6">
-        <v>0.03902466448447979</v>
+        <v>0.0288937278685031</v>
       </c>
       <c r="D6">
-        <v>0.03726152749798268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.08300988529414575</v>
+      </c>
+      <c r="E6">
+        <v>-0.09676323125795715</v>
+      </c>
+      <c r="F6">
+        <v>-0.02433753042111619</v>
+      </c>
+      <c r="G6">
+        <v>-0.0008884341678040307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03139220488460522</v>
+        <v>-0.02396727398139815</v>
       </c>
       <c r="C7">
-        <v>0.0368227252580984</v>
+        <v>0.03535212249594664</v>
       </c>
       <c r="D7">
-        <v>0.01917673345444727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.06536173358193126</v>
+      </c>
+      <c r="E7">
+        <v>-0.08470753130975482</v>
+      </c>
+      <c r="F7">
+        <v>-0.001784729428430019</v>
+      </c>
+      <c r="G7">
+        <v>-0.08426397851837225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01116475973211216</v>
+        <v>-0.008970695611616411</v>
       </c>
       <c r="C8">
-        <v>0.04542548618943499</v>
+        <v>0.03704996264931046</v>
       </c>
       <c r="D8">
-        <v>0.03407130620035314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.05343124783609059</v>
+      </c>
+      <c r="E8">
+        <v>-0.06881043956666934</v>
+      </c>
+      <c r="F8">
+        <v>-0.01482714884631313</v>
+      </c>
+      <c r="G8">
+        <v>0.008306553211852167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.041960333273106</v>
+        <v>-0.0442971801447346</v>
       </c>
       <c r="C9">
-        <v>0.04405977403947074</v>
+        <v>0.04991037932789806</v>
       </c>
       <c r="D9">
-        <v>0.03509371067808477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06853115146134503</v>
+      </c>
+      <c r="E9">
+        <v>-0.08703819323997825</v>
+      </c>
+      <c r="F9">
+        <v>-0.00713573886819586</v>
+      </c>
+      <c r="G9">
+        <v>-0.04546740696205132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07582233457592934</v>
+        <v>-0.1031165627898234</v>
       </c>
       <c r="C10">
-        <v>-0.1883921019218201</v>
+        <v>-0.201094950114923</v>
       </c>
       <c r="D10">
-        <v>0.009658595368585285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.003846802391788337</v>
+      </c>
+      <c r="E10">
+        <v>-0.03978575612139616</v>
+      </c>
+      <c r="F10">
+        <v>0.002470056720351821</v>
+      </c>
+      <c r="G10">
+        <v>-0.0284588358499585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04603041426476914</v>
+        <v>-0.03896817890257226</v>
       </c>
       <c r="C11">
-        <v>0.05074963164483817</v>
+        <v>0.04795881069981531</v>
       </c>
       <c r="D11">
-        <v>0.02867607447724387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04596437721163101</v>
+      </c>
+      <c r="E11">
+        <v>-0.03778757172426368</v>
+      </c>
+      <c r="F11">
+        <v>-0.008316143371848878</v>
+      </c>
+      <c r="G11">
+        <v>-0.05433793261094259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04919040180576962</v>
+        <v>-0.04109445527070778</v>
       </c>
       <c r="C12">
-        <v>0.04545119858779875</v>
+        <v>0.04597169252439327</v>
       </c>
       <c r="D12">
-        <v>0.009320398672612971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03971664265607133</v>
+      </c>
+      <c r="E12">
+        <v>-0.04954143915682253</v>
+      </c>
+      <c r="F12">
+        <v>-0.003366989313114893</v>
+      </c>
+      <c r="G12">
+        <v>-0.04874928343103271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01788727006169087</v>
+        <v>-0.01647215360235536</v>
       </c>
       <c r="C13">
-        <v>0.05442570696654299</v>
+        <v>0.04323235907702848</v>
       </c>
       <c r="D13">
-        <v>0.01951730087166572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.07499200931648985</v>
+      </c>
+      <c r="E13">
+        <v>-0.1309193243448097</v>
+      </c>
+      <c r="F13">
+        <v>-0.01377844036798585</v>
+      </c>
+      <c r="G13">
+        <v>-0.05738660956710361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01567605610148755</v>
+        <v>-0.009410116025645841</v>
       </c>
       <c r="C14">
-        <v>0.03551773764603931</v>
+        <v>0.03059140554676244</v>
       </c>
       <c r="D14">
-        <v>0.01289346336907729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0505557667740072</v>
+      </c>
+      <c r="E14">
+        <v>-0.08001452569867161</v>
+      </c>
+      <c r="F14">
+        <v>0.01510464660139666</v>
+      </c>
+      <c r="G14">
+        <v>-0.05089008328622235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003825121285688291</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006671043808310395</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01222172475223466</v>
+      </c>
+      <c r="E15">
+        <v>-0.0119894631208171</v>
+      </c>
+      <c r="F15">
+        <v>-0.0003054087639566589</v>
+      </c>
+      <c r="G15">
+        <v>-0.0004843632807165204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04493315910989501</v>
+        <v>-0.03804129148058963</v>
       </c>
       <c r="C16">
-        <v>0.04847837894696617</v>
+        <v>0.04568631290014562</v>
       </c>
       <c r="D16">
-        <v>0.01678574348767597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04143969605560861</v>
+      </c>
+      <c r="E16">
+        <v>-0.05196179166150035</v>
+      </c>
+      <c r="F16">
+        <v>0.007464926083740945</v>
+      </c>
+      <c r="G16">
+        <v>-0.04305477736327597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02551335732756255</v>
+        <v>-0.01853803787737282</v>
       </c>
       <c r="C19">
-        <v>0.06111569741076318</v>
+        <v>0.04406716338083626</v>
       </c>
       <c r="D19">
-        <v>0.07940721762918537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1033310291769336</v>
+      </c>
+      <c r="E19">
+        <v>-0.1231591339185486</v>
+      </c>
+      <c r="F19">
+        <v>0.01731919937286169</v>
+      </c>
+      <c r="G19">
+        <v>-0.006635608555502824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02322639488102446</v>
+        <v>-0.01835824377531712</v>
       </c>
       <c r="C20">
-        <v>0.04737509201759014</v>
+        <v>0.039763942777137</v>
       </c>
       <c r="D20">
-        <v>0.01911309236868859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05675436990293617</v>
+      </c>
+      <c r="E20">
+        <v>-0.09850294123211596</v>
+      </c>
+      <c r="F20">
+        <v>0.002256082440744293</v>
+      </c>
+      <c r="G20">
+        <v>-0.03091726972563135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02167577487836665</v>
+        <v>-0.01701544842319372</v>
       </c>
       <c r="C21">
-        <v>0.05769383826502646</v>
+        <v>0.04625674489460335</v>
       </c>
       <c r="D21">
-        <v>0.03613867876129927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08405364409082114</v>
+      </c>
+      <c r="E21">
+        <v>-0.1512162739942575</v>
+      </c>
+      <c r="F21">
+        <v>0.02285630112881719</v>
+      </c>
+      <c r="G21">
+        <v>-0.07254256495175519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001032032220094053</v>
+        <v>-0.005445898392572548</v>
       </c>
       <c r="C22">
-        <v>0.01398692418318055</v>
+        <v>0.0294614165793302</v>
       </c>
       <c r="D22">
-        <v>0.02542486789374869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06945175770520895</v>
+      </c>
+      <c r="E22">
+        <v>-0.07589098657772142</v>
+      </c>
+      <c r="F22">
+        <v>-0.06386810277445526</v>
+      </c>
+      <c r="G22">
+        <v>0.03217085886530466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001043665269570848</v>
+        <v>-0.005567191098325448</v>
       </c>
       <c r="C23">
-        <v>0.01399983822815079</v>
+        <v>0.02952096084425557</v>
       </c>
       <c r="D23">
-        <v>0.0253748484978016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0687666641649044</v>
+      </c>
+      <c r="E23">
+        <v>-0.07609654350762435</v>
+      </c>
+      <c r="F23">
+        <v>-0.0638195211690446</v>
+      </c>
+      <c r="G23">
+        <v>0.03158264562460611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04157516234839546</v>
+        <v>-0.0388194404276997</v>
       </c>
       <c r="C24">
-        <v>0.04904758705197108</v>
+        <v>0.05308711247669085</v>
       </c>
       <c r="D24">
-        <v>0.02235270464459632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.04395364855427665</v>
+      </c>
+      <c r="E24">
+        <v>-0.05703725516290113</v>
+      </c>
+      <c r="F24">
+        <v>0.004426509788462115</v>
+      </c>
+      <c r="G24">
+        <v>-0.05841574419354578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0521091389069142</v>
+        <v>-0.04558828074600334</v>
       </c>
       <c r="C25">
-        <v>0.05816612034506334</v>
+        <v>0.0556682899945458</v>
       </c>
       <c r="D25">
-        <v>0.01582577605216719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.04036338675954858</v>
+      </c>
+      <c r="E25">
+        <v>-0.04903013254267753</v>
+      </c>
+      <c r="F25">
+        <v>-0.01040760070782172</v>
+      </c>
+      <c r="G25">
+        <v>-0.06569413238288149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02340937597000084</v>
+        <v>-0.0198473090732264</v>
       </c>
       <c r="C26">
-        <v>0.01382571827016002</v>
+        <v>0.01638636539617518</v>
       </c>
       <c r="D26">
-        <v>0.02069804361561487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04466097816768332</v>
+      </c>
+      <c r="E26">
+        <v>-0.06411105190797979</v>
+      </c>
+      <c r="F26">
+        <v>0.01682775519152731</v>
+      </c>
+      <c r="G26">
+        <v>-0.02566482750484386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09322636148232649</v>
+        <v>-0.1410591094767989</v>
       </c>
       <c r="C28">
-        <v>-0.2592845949331074</v>
+        <v>-0.2602946373217697</v>
       </c>
       <c r="D28">
-        <v>-0.002507328106431047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01909394635103199</v>
+      </c>
+      <c r="E28">
+        <v>-0.06384511284122574</v>
+      </c>
+      <c r="F28">
+        <v>0.002866236874876703</v>
+      </c>
+      <c r="G28">
+        <v>-0.06419712732386107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01193061793832962</v>
+        <v>-0.008750141745784401</v>
       </c>
       <c r="C29">
-        <v>0.03060762772096855</v>
+        <v>0.02824278270644929</v>
       </c>
       <c r="D29">
-        <v>0.004426687776085585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04196451222236129</v>
+      </c>
+      <c r="E29">
+        <v>-0.0785953661875608</v>
+      </c>
+      <c r="F29">
+        <v>0.005190539602849331</v>
+      </c>
+      <c r="G29">
+        <v>-0.05872910514169379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04560549351767083</v>
+        <v>-0.04543585533633379</v>
       </c>
       <c r="C30">
-        <v>0.04995799679252329</v>
+        <v>0.05658975593973364</v>
       </c>
       <c r="D30">
-        <v>0.09594142087236035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1305900216781336</v>
+      </c>
+      <c r="E30">
+        <v>-0.100753774287246</v>
+      </c>
+      <c r="F30">
+        <v>-0.00187983108420078</v>
+      </c>
+      <c r="G30">
+        <v>0.001058567495563885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06851112314130731</v>
+        <v>-0.06449278370482001</v>
       </c>
       <c r="C31">
-        <v>0.04544644542075258</v>
+        <v>0.06055581349554647</v>
       </c>
       <c r="D31">
-        <v>-0.025743075850756</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007294134800199365</v>
+      </c>
+      <c r="E31">
+        <v>-0.08300917475056079</v>
+      </c>
+      <c r="F31">
+        <v>-0.03019199247190266</v>
+      </c>
+      <c r="G31">
+        <v>-0.03306354775802327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0007884519489223693</v>
+        <v>-0.006616831652928771</v>
       </c>
       <c r="C32">
-        <v>0.03317234666079731</v>
+        <v>0.03041856556965858</v>
       </c>
       <c r="D32">
-        <v>0.04705847195447961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06388604836978985</v>
+      </c>
+      <c r="E32">
+        <v>-0.106125415315106</v>
+      </c>
+      <c r="F32">
+        <v>0.03406424267535093</v>
+      </c>
+      <c r="G32">
+        <v>-0.08616767488830067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03961165481120103</v>
+        <v>-0.03178923372629973</v>
       </c>
       <c r="C33">
-        <v>0.0584740203733605</v>
+        <v>0.05250343532578203</v>
       </c>
       <c r="D33">
-        <v>0.05977795196159431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09833704833811346</v>
+      </c>
+      <c r="E33">
+        <v>-0.1046669053827101</v>
+      </c>
+      <c r="F33">
+        <v>-0.01354612557206989</v>
+      </c>
+      <c r="G33">
+        <v>-0.05033954326369856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04597624313745697</v>
+        <v>-0.04067425757065599</v>
       </c>
       <c r="C34">
-        <v>0.06419684948857303</v>
+        <v>0.06274580842577095</v>
       </c>
       <c r="D34">
-        <v>0.03409740495621102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04862782245277045</v>
+      </c>
+      <c r="E34">
+        <v>-0.03807032535078489</v>
+      </c>
+      <c r="F34">
+        <v>0.001976767276979008</v>
+      </c>
+      <c r="G34">
+        <v>-0.0672263683280838</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4.695467987203706e-06</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0004489537598216515</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0003243414857826358</v>
+      </c>
+      <c r="E35">
+        <v>0.0004979239947445403</v>
+      </c>
+      <c r="F35">
+        <v>-1.899400817056727e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.0001115279689220396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02279535442758913</v>
+        <v>-0.01920239385354062</v>
       </c>
       <c r="C36">
-        <v>0.01546051024668239</v>
+        <v>0.01313888637396511</v>
       </c>
       <c r="D36">
-        <v>0.01309030067805219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04527611468071693</v>
+      </c>
+      <c r="E36">
+        <v>-0.0755631251877011</v>
+      </c>
+      <c r="F36">
+        <v>0.001477015984122608</v>
+      </c>
+      <c r="G36">
+        <v>-0.04272173950328061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03267767589754052</v>
+        <v>-0.02513439185475615</v>
       </c>
       <c r="C38">
-        <v>0.03214742982357308</v>
+        <v>0.02530750294002194</v>
       </c>
       <c r="D38">
-        <v>-0.00547010920750144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03676250224515432</v>
+      </c>
+      <c r="E38">
+        <v>-0.06464115492087287</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009037200664467693</v>
+      </c>
+      <c r="G38">
+        <v>0.001474053994269754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05426989402203357</v>
+        <v>-0.04587312448953542</v>
       </c>
       <c r="C39">
-        <v>0.05855817279992426</v>
+        <v>0.06196041275957072</v>
       </c>
       <c r="D39">
-        <v>0.04070601784955974</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07483061760248746</v>
+      </c>
+      <c r="E39">
+        <v>-0.06337065380089155</v>
+      </c>
+      <c r="F39">
+        <v>0.02094224973048785</v>
+      </c>
+      <c r="G39">
+        <v>-0.04358806262079588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01596922702283917</v>
+        <v>-0.01739834156417745</v>
       </c>
       <c r="C40">
-        <v>0.057403782873797</v>
+        <v>0.0412171859419479</v>
       </c>
       <c r="D40">
-        <v>0.01196079867882219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05077885425594605</v>
+      </c>
+      <c r="E40">
+        <v>-0.1157516415167086</v>
+      </c>
+      <c r="F40">
+        <v>-0.02370490787170234</v>
+      </c>
+      <c r="G40">
+        <v>-0.04309487144777212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0262959110172572</v>
+        <v>-0.02195320865765996</v>
       </c>
       <c r="C41">
-        <v>0.01331024252256862</v>
+        <v>0.01012891538875391</v>
       </c>
       <c r="D41">
-        <v>0.009525567052840625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03076136487878096</v>
+      </c>
+      <c r="E41">
+        <v>-0.07537175118617238</v>
+      </c>
+      <c r="F41">
+        <v>0.003232025610497215</v>
+      </c>
+      <c r="G41">
+        <v>-0.03357139925307322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04856560750454254</v>
+        <v>-0.03369189269558953</v>
       </c>
       <c r="C43">
-        <v>0.03415275720045301</v>
+        <v>0.02422868258146025</v>
       </c>
       <c r="D43">
-        <v>0.02599223350992918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0595385276925821</v>
+      </c>
+      <c r="E43">
+        <v>-0.08648485455275136</v>
+      </c>
+      <c r="F43">
+        <v>-0.01861143803879489</v>
+      </c>
+      <c r="G43">
+        <v>-0.04991493669660075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02119617563964314</v>
+        <v>-0.02110381368996642</v>
       </c>
       <c r="C44">
-        <v>0.06975379514031181</v>
+        <v>0.04946723822277242</v>
       </c>
       <c r="D44">
-        <v>0.002231602180562377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05120616565124958</v>
+      </c>
+      <c r="E44">
+        <v>-0.1063046043421716</v>
+      </c>
+      <c r="F44">
+        <v>0.01470628275751693</v>
+      </c>
+      <c r="G44">
+        <v>-0.0284207099923207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0171151430007378</v>
+        <v>-0.01525849723733956</v>
       </c>
       <c r="C46">
-        <v>0.02688793544258953</v>
+        <v>0.02980941918828444</v>
       </c>
       <c r="D46">
-        <v>-0.0007234375240108325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03781439731791156</v>
+      </c>
+      <c r="E46">
+        <v>-0.08801867096535466</v>
+      </c>
+      <c r="F46">
+        <v>0.01906517895122221</v>
+      </c>
+      <c r="G46">
+        <v>-0.07026841194680485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09743019716155582</v>
+        <v>-0.09657049654637742</v>
       </c>
       <c r="C47">
-        <v>0.06546843103714689</v>
+        <v>0.07955093242866144</v>
       </c>
       <c r="D47">
-        <v>-0.04008640272292908</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008951189297366444</v>
+      </c>
+      <c r="E47">
+        <v>-0.06984865209910654</v>
+      </c>
+      <c r="F47">
+        <v>-0.01817451327470382</v>
+      </c>
+      <c r="G47">
+        <v>-0.06199574547970038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02548524353918755</v>
+        <v>-0.02129374193606579</v>
       </c>
       <c r="C48">
-        <v>0.01094499978558924</v>
+        <v>0.01521171861888547</v>
       </c>
       <c r="D48">
-        <v>-0.008780481368080465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.03163127516168376</v>
+      </c>
+      <c r="E48">
+        <v>-0.09222371917088042</v>
+      </c>
+      <c r="F48">
+        <v>0.009107183104714025</v>
+      </c>
+      <c r="G48">
+        <v>-0.04973224547316032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08831575844432071</v>
+        <v>-0.07444801275669254</v>
       </c>
       <c r="C50">
-        <v>0.08429562274312487</v>
+        <v>0.07531547377178412</v>
       </c>
       <c r="D50">
-        <v>-0.04055740755628862</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.009661763946721275</v>
+      </c>
+      <c r="E50">
+        <v>-0.08708961504164525</v>
+      </c>
+      <c r="F50">
+        <v>-0.05676011411520269</v>
+      </c>
+      <c r="G50">
+        <v>-0.02860145582066202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01912458195283541</v>
+        <v>-0.0141068596569999</v>
       </c>
       <c r="C51">
-        <v>0.04928353238000219</v>
+        <v>0.03016959173339093</v>
       </c>
       <c r="D51">
-        <v>0.06510232497863837</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0797740735802481</v>
+      </c>
+      <c r="E51">
+        <v>-0.07144456940091058</v>
+      </c>
+      <c r="F51">
+        <v>0.01459527201282265</v>
+      </c>
+      <c r="G51">
+        <v>-0.01844770248597099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08928783864582457</v>
+        <v>-0.1014958972244951</v>
       </c>
       <c r="C53">
-        <v>0.07748329877640928</v>
+        <v>0.08650072326971464</v>
       </c>
       <c r="D53">
-        <v>-0.0615136594504873</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04708983234717328</v>
+      </c>
+      <c r="E53">
+        <v>-0.08743364116212619</v>
+      </c>
+      <c r="F53">
+        <v>-0.01437262007247416</v>
+      </c>
+      <c r="G53">
+        <v>-0.06996279728905823</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04196212150985302</v>
+        <v>-0.03302289322842903</v>
       </c>
       <c r="C54">
-        <v>0.03291248019101974</v>
+        <v>0.03102744834220538</v>
       </c>
       <c r="D54">
-        <v>0.01895641039587983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05095185928092177</v>
+      </c>
+      <c r="E54">
+        <v>-0.08153486751648555</v>
+      </c>
+      <c r="F54">
+        <v>0.008541826052818348</v>
+      </c>
+      <c r="G54">
+        <v>-0.05771677464704188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08602942545791033</v>
+        <v>-0.09358621425046473</v>
       </c>
       <c r="C55">
-        <v>0.05135144247498728</v>
+        <v>0.06663057236445384</v>
       </c>
       <c r="D55">
-        <v>-0.06081441872919358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04844680200898259</v>
+      </c>
+      <c r="E55">
+        <v>-0.05800283386879054</v>
+      </c>
+      <c r="F55">
+        <v>-0.02519768540174511</v>
+      </c>
+      <c r="G55">
+        <v>-0.03046971217533888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1501347635828353</v>
+        <v>-0.153857205211303</v>
       </c>
       <c r="C56">
-        <v>0.0840441443685471</v>
+        <v>0.1024429821057903</v>
       </c>
       <c r="D56">
-        <v>-0.07000388845015158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0556018189614527</v>
+      </c>
+      <c r="E56">
+        <v>-0.04757246290261614</v>
+      </c>
+      <c r="F56">
+        <v>-0.01984424473416966</v>
+      </c>
+      <c r="G56">
+        <v>-0.04378114045399613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04797839141903657</v>
+        <v>-0.03710515197054139</v>
       </c>
       <c r="C58">
-        <v>-0.001449833914166709</v>
+        <v>0.01098358049698772</v>
       </c>
       <c r="D58">
-        <v>0.2041457358901475</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2823306125777543</v>
+      </c>
+      <c r="E58">
+        <v>-0.3571044925396347</v>
+      </c>
+      <c r="F58">
+        <v>-0.1599260146501714</v>
+      </c>
+      <c r="G58">
+        <v>0.6024658347933588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1240232557632682</v>
+        <v>-0.1433511314912872</v>
       </c>
       <c r="C59">
-        <v>-0.2089403488744439</v>
+        <v>-0.1940713199300298</v>
       </c>
       <c r="D59">
-        <v>0.03900355073789528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03889075268594554</v>
+      </c>
+      <c r="E59">
+        <v>-0.02914771767604665</v>
+      </c>
+      <c r="F59">
+        <v>0.02679726568068048</v>
+      </c>
+      <c r="G59">
+        <v>0.02016973929650156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2849248555690233</v>
+        <v>-0.2603739559770011</v>
       </c>
       <c r="C60">
-        <v>0.104350931338501</v>
+        <v>0.09673300407183016</v>
       </c>
       <c r="D60">
-        <v>0.2486558444539268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2257358506402433</v>
+      </c>
+      <c r="E60">
+        <v>0.2693890153241242</v>
+      </c>
+      <c r="F60">
+        <v>-0.1021548838939016</v>
+      </c>
+      <c r="G60">
+        <v>-0.01460452549194474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.05225475222766228</v>
+        <v>-0.04748049293176704</v>
       </c>
       <c r="C61">
-        <v>0.05395771491606407</v>
+        <v>0.05498827173851342</v>
       </c>
       <c r="D61">
-        <v>0.03651169657370326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0615954033561718</v>
+      </c>
+      <c r="E61">
+        <v>-0.06194597837587457</v>
+      </c>
+      <c r="F61">
+        <v>0.0007101104863071389</v>
+      </c>
+      <c r="G61">
+        <v>-0.06040988323463242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01996118401665583</v>
+        <v>-0.0191057634752879</v>
       </c>
       <c r="C63">
-        <v>0.03440036202795012</v>
+        <v>0.03114914928273495</v>
       </c>
       <c r="D63">
-        <v>-0.006667786744944323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03668448610999124</v>
+      </c>
+      <c r="E63">
+        <v>-0.08324160124144847</v>
+      </c>
+      <c r="F63">
+        <v>-0.01850836081051335</v>
+      </c>
+      <c r="G63">
+        <v>-0.02837973539502492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05528746522096224</v>
+        <v>-0.05885699810780208</v>
       </c>
       <c r="C64">
-        <v>0.04716648265015384</v>
+        <v>0.05998103154804751</v>
       </c>
       <c r="D64">
-        <v>0.02087985787578876</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02595957341497778</v>
+      </c>
+      <c r="E64">
+        <v>-0.05367327801215224</v>
+      </c>
+      <c r="F64">
+        <v>0.01298546271065767</v>
+      </c>
+      <c r="G64">
+        <v>-0.08078309238710048</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0768506264262883</v>
+        <v>-0.06345465795513001</v>
       </c>
       <c r="C65">
-        <v>0.02663602769525272</v>
+        <v>0.02627168344900343</v>
       </c>
       <c r="D65">
-        <v>0.05788844750590512</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09759615771720279</v>
+      </c>
+      <c r="E65">
+        <v>-0.06188733157233572</v>
+      </c>
+      <c r="F65">
+        <v>-0.03025704443686036</v>
+      </c>
+      <c r="G65">
+        <v>0.04701508067633557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06622368431766572</v>
+        <v>-0.05712832448358896</v>
       </c>
       <c r="C66">
-        <v>0.07797441177713138</v>
+        <v>0.07742573705026425</v>
       </c>
       <c r="D66">
-        <v>0.05866126979184057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09786368065735124</v>
+      </c>
+      <c r="E66">
+        <v>-0.07536376008159855</v>
+      </c>
+      <c r="F66">
+        <v>0.001125437496085591</v>
+      </c>
+      <c r="G66">
+        <v>-0.04462437396425036</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05289108778435225</v>
+        <v>-0.04446548767400822</v>
       </c>
       <c r="C67">
-        <v>0.03241796288085854</v>
+        <v>0.02895264250346446</v>
       </c>
       <c r="D67">
-        <v>-0.01488569200927544</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01424623658698583</v>
+      </c>
+      <c r="E67">
+        <v>-0.03529321263009819</v>
+      </c>
+      <c r="F67">
+        <v>-0.0034549223478319</v>
+      </c>
+      <c r="G67">
+        <v>-0.005173108292717901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1277434063628959</v>
+        <v>-0.1511355749155965</v>
       </c>
       <c r="C68">
-        <v>-0.2839803864356675</v>
+        <v>-0.243095211479824</v>
       </c>
       <c r="D68">
-        <v>-0.0040172741563945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.002966225507637996</v>
+      </c>
+      <c r="E68">
+        <v>-0.04984256370226318</v>
+      </c>
+      <c r="F68">
+        <v>-0.007428363362158651</v>
+      </c>
+      <c r="G68">
+        <v>0.007592294635221952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09753202684509682</v>
+        <v>-0.09194251962761993</v>
       </c>
       <c r="C69">
-        <v>0.0751962225984187</v>
+        <v>0.08933420922744134</v>
       </c>
       <c r="D69">
-        <v>-0.03480904122239269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004484822182693348</v>
+      </c>
+      <c r="E69">
+        <v>-0.06976520123309153</v>
+      </c>
+      <c r="F69">
+        <v>0.007761575114004178</v>
+      </c>
+      <c r="G69">
+        <v>-0.0741568987331367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1133552052954611</v>
+        <v>-0.143910866256823</v>
       </c>
       <c r="C71">
-        <v>-0.2612120279170448</v>
+        <v>-0.2449247436122312</v>
       </c>
       <c r="D71">
-        <v>0.01946069042809874</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01466785162147951</v>
+      </c>
+      <c r="E71">
+        <v>-0.07100196962189081</v>
+      </c>
+      <c r="F71">
+        <v>-0.02392958728762253</v>
+      </c>
+      <c r="G71">
+        <v>-0.04698931205831908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.10303937616238</v>
+        <v>-0.107306053680979</v>
       </c>
       <c r="C72">
-        <v>0.04966822486546556</v>
+        <v>0.05001496206833756</v>
       </c>
       <c r="D72">
-        <v>0.02573342567064437</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05872669403103065</v>
+      </c>
+      <c r="E72">
+        <v>-0.03792745886328708</v>
+      </c>
+      <c r="F72">
+        <v>-0.03408089999030484</v>
+      </c>
+      <c r="G72">
+        <v>-0.06110142465250069</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3585616527233486</v>
+        <v>-0.3093169661434822</v>
       </c>
       <c r="C73">
-        <v>0.06877073103001927</v>
+        <v>0.07567453098281897</v>
       </c>
       <c r="D73">
-        <v>0.532392579238124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4440049395151398</v>
+      </c>
+      <c r="E73">
+        <v>0.5393483983637798</v>
+      </c>
+      <c r="F73">
+        <v>-0.1956023399009111</v>
+      </c>
+      <c r="G73">
+        <v>0.05326855633787475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1083629920749965</v>
+        <v>-0.1119887058617913</v>
       </c>
       <c r="C74">
-        <v>0.09393822636949761</v>
+        <v>0.09153971649994509</v>
       </c>
       <c r="D74">
-        <v>-0.04785811863780982</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.040248514650106</v>
+      </c>
+      <c r="E74">
+        <v>-0.06430697738164935</v>
+      </c>
+      <c r="F74">
+        <v>-0.03220839299249098</v>
+      </c>
+      <c r="G74">
+        <v>-0.03677038304507337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2546961586960487</v>
+        <v>-0.2564392350741512</v>
       </c>
       <c r="C75">
-        <v>0.08718834929754267</v>
+        <v>0.1234478071992643</v>
       </c>
       <c r="D75">
-        <v>-0.1704765821479068</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1638423964009915</v>
+      </c>
+      <c r="E75">
+        <v>-0.02466999608901417</v>
+      </c>
+      <c r="F75">
+        <v>-0.01543782679581074</v>
+      </c>
+      <c r="G75">
+        <v>0.006447556888913499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1206219158769167</v>
+        <v>-0.1320495540491799</v>
       </c>
       <c r="C76">
-        <v>0.077597510299745</v>
+        <v>0.08996263225235951</v>
       </c>
       <c r="D76">
-        <v>-0.08669458171295466</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07189595867286368</v>
+      </c>
+      <c r="E76">
+        <v>-0.09315888287316329</v>
+      </c>
+      <c r="F76">
+        <v>-0.00119963070899007</v>
+      </c>
+      <c r="G76">
+        <v>-0.03980248411811044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08636037689742943</v>
+        <v>-0.06939809104674347</v>
       </c>
       <c r="C77">
-        <v>0.03262909561420058</v>
+        <v>0.05686840866608453</v>
       </c>
       <c r="D77">
-        <v>0.05689637090982004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.08619053253909885</v>
+      </c>
+      <c r="E77">
+        <v>-0.1165720171754766</v>
+      </c>
+      <c r="F77">
+        <v>0.2134283414928611</v>
+      </c>
+      <c r="G77">
+        <v>0.1195079774748803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04945237426231817</v>
+        <v>-0.04843073571359184</v>
       </c>
       <c r="C78">
-        <v>0.03982715398913757</v>
+        <v>0.05202830687913423</v>
       </c>
       <c r="D78">
-        <v>0.05136648541985637</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08740790253762819</v>
+      </c>
+      <c r="E78">
+        <v>-0.07807301220442849</v>
+      </c>
+      <c r="F78">
+        <v>0.001423407148385971</v>
+      </c>
+      <c r="G78">
+        <v>-0.05024949394851468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.00133558430864839</v>
+        <v>-0.0373871209087492</v>
       </c>
       <c r="C79">
-        <v>0.0002388936850584457</v>
+        <v>0.04997918828417541</v>
       </c>
       <c r="D79">
-        <v>0.005097131945134826</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08782442696700142</v>
+      </c>
+      <c r="E79">
+        <v>-0.08738841830812302</v>
+      </c>
+      <c r="F79">
+        <v>-0.03151176295960675</v>
+      </c>
+      <c r="G79">
+        <v>-0.1699556767153102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03809641161865029</v>
+        <v>-0.03007824545223517</v>
       </c>
       <c r="C80">
-        <v>0.0474097171694455</v>
+        <v>0.0491095818362137</v>
       </c>
       <c r="D80">
-        <v>0.04195970990739487</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04801338494189137</v>
+      </c>
+      <c r="E80">
+        <v>-0.01505379863341689</v>
+      </c>
+      <c r="F80">
+        <v>0.04196506016311726</v>
+      </c>
+      <c r="G80">
+        <v>-0.002495456075531748</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1496070957241837</v>
+        <v>-0.1445366154726038</v>
       </c>
       <c r="C81">
-        <v>0.06546053182296357</v>
+        <v>0.08896609788573898</v>
       </c>
       <c r="D81">
-        <v>-0.1423566181895072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1258499987950199</v>
+      </c>
+      <c r="E81">
+        <v>-0.06915420112077578</v>
+      </c>
+      <c r="F81">
+        <v>-0.001939156501566461</v>
+      </c>
+      <c r="G81">
+        <v>-0.01138100350651767</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2242923152307519</v>
+        <v>-0.2419497157608376</v>
       </c>
       <c r="C82">
-        <v>0.09048714071426416</v>
+        <v>0.1609970559049957</v>
       </c>
       <c r="D82">
-        <v>-0.1847206419468835</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.244581965851784</v>
+      </c>
+      <c r="E82">
+        <v>0.0615620038145271</v>
+      </c>
+      <c r="F82">
+        <v>0.0619027450125144</v>
+      </c>
+      <c r="G82">
+        <v>-0.3418564186163566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04232423818709649</v>
+        <v>-0.02869862778557741</v>
       </c>
       <c r="C83">
-        <v>0.04085350294603815</v>
+        <v>0.04845895427327156</v>
       </c>
       <c r="D83">
-        <v>0.05318410773605001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03847189917860494</v>
+      </c>
+      <c r="E83">
+        <v>-0.02953748084342917</v>
+      </c>
+      <c r="F83">
+        <v>0.02415523365420674</v>
+      </c>
+      <c r="G83">
+        <v>0.009760442549156853</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001804499995860913</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001727880217828694</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.00161434235547456</v>
+      </c>
+      <c r="E84">
+        <v>-0.007767403749304149</v>
+      </c>
+      <c r="F84">
+        <v>-0.002998637764865382</v>
+      </c>
+      <c r="G84">
+        <v>0.006413134976033229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2051353439917896</v>
+        <v>-0.1921251932343372</v>
       </c>
       <c r="C85">
-        <v>0.09497087580909469</v>
+        <v>0.1111530794518091</v>
       </c>
       <c r="D85">
-        <v>-0.1855281301995101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1474124873030148</v>
+      </c>
+      <c r="E85">
+        <v>-0.00797591537334289</v>
+      </c>
+      <c r="F85">
+        <v>-0.09135808994349122</v>
+      </c>
+      <c r="G85">
+        <v>-0.03294372966473836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01332617750579199</v>
+        <v>-0.01683107590539812</v>
       </c>
       <c r="C86">
-        <v>0.02867218036434114</v>
+        <v>0.0166465286263687</v>
       </c>
       <c r="D86">
-        <v>0.0590286806851693</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09137844763076547</v>
+      </c>
+      <c r="E86">
+        <v>-0.089123029196242</v>
+      </c>
+      <c r="F86">
+        <v>0.01587700860600182</v>
+      </c>
+      <c r="G86">
+        <v>-0.06178083487971927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03410030873524473</v>
+        <v>-0.03363245599854917</v>
       </c>
       <c r="C87">
-        <v>0.0003390509594121052</v>
+        <v>0.01381051183387696</v>
       </c>
       <c r="D87">
-        <v>0.07605450402581491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1075216936189445</v>
+      </c>
+      <c r="E87">
+        <v>-0.1329838384921646</v>
+      </c>
+      <c r="F87">
+        <v>0.05079779870266772</v>
+      </c>
+      <c r="G87">
+        <v>0.02733096778388689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1168899510557735</v>
+        <v>-0.0971170499185359</v>
       </c>
       <c r="C88">
-        <v>0.08260699224772633</v>
+        <v>0.06920465892941868</v>
       </c>
       <c r="D88">
-        <v>-0.005727810004184243</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02382612332341642</v>
+      </c>
+      <c r="E88">
+        <v>-0.04406154794421038</v>
+      </c>
+      <c r="F88">
+        <v>0.01697620710300173</v>
+      </c>
+      <c r="G88">
+        <v>-0.04260671411422932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1839518641981638</v>
+        <v>-0.2185900253422091</v>
       </c>
       <c r="C89">
-        <v>-0.3773609932323376</v>
+        <v>-0.3803196913907209</v>
       </c>
       <c r="D89">
-        <v>-0.01909350171123655</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.001441289928568495</v>
+      </c>
+      <c r="E89">
+        <v>-0.07018208196988879</v>
+      </c>
+      <c r="F89">
+        <v>0.06741836936853188</v>
+      </c>
+      <c r="G89">
+        <v>-0.02604640298632513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1755021589606353</v>
+        <v>-0.1996127353418273</v>
       </c>
       <c r="C90">
-        <v>-0.3319463612255641</v>
+        <v>-0.3092769063041027</v>
       </c>
       <c r="D90">
-        <v>-0.02496851029334202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.00391629708481878</v>
+      </c>
+      <c r="E90">
+        <v>-0.05508129366806547</v>
+      </c>
+      <c r="F90">
+        <v>0.00603072914632541</v>
+      </c>
+      <c r="G90">
+        <v>0.01104534329659356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1950827441790458</v>
+        <v>-0.1890210482878516</v>
       </c>
       <c r="C91">
-        <v>0.1222045546519824</v>
+        <v>0.1417954331289512</v>
       </c>
       <c r="D91">
-        <v>-0.1467080519645458</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1303025451731704</v>
+      </c>
+      <c r="E91">
+        <v>-0.05402887862287471</v>
+      </c>
+      <c r="F91">
+        <v>-0.001142549303501087</v>
+      </c>
+      <c r="G91">
+        <v>-0.01012330922379147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1575761789770977</v>
+        <v>-0.1789141692133771</v>
       </c>
       <c r="C92">
-        <v>-0.2911271952049287</v>
+        <v>-0.2966973928141313</v>
       </c>
       <c r="D92">
-        <v>-0.0125425480789853</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.001119733907505857</v>
+      </c>
+      <c r="E92">
+        <v>-0.08264004612393581</v>
+      </c>
+      <c r="F92">
+        <v>0.02734746823181558</v>
+      </c>
+      <c r="G92">
+        <v>-0.0466106220131913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1906714912917711</v>
+        <v>-0.2146574134313881</v>
       </c>
       <c r="C93">
-        <v>-0.3442528844181536</v>
+        <v>-0.3203505664706655</v>
       </c>
       <c r="D93">
-        <v>-0.03324895581774674</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01434531391169385</v>
+      </c>
+      <c r="E93">
+        <v>-0.03282877846449568</v>
+      </c>
+      <c r="F93">
+        <v>-0.02132190176832045</v>
+      </c>
+      <c r="G93">
+        <v>-0.04722060086329454</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3588796344985796</v>
+        <v>-0.3490989143775127</v>
       </c>
       <c r="C94">
-        <v>0.1187273182951467</v>
+        <v>0.1726326516778584</v>
       </c>
       <c r="D94">
-        <v>-0.4672214040631099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4325745703718527</v>
+      </c>
+      <c r="E94">
+        <v>0.05905518156263974</v>
+      </c>
+      <c r="F94">
+        <v>0.1062496734704719</v>
+      </c>
+      <c r="G94">
+        <v>0.5606115751680489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1088746152893718</v>
+        <v>-0.08125156671389434</v>
       </c>
       <c r="C95">
-        <v>0.03933964142158822</v>
+        <v>0.05289839732567359</v>
       </c>
       <c r="D95">
-        <v>0.3068326471597122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2266806899770548</v>
+      </c>
+      <c r="E95">
+        <v>0.1139134359511728</v>
+      </c>
+      <c r="F95">
+        <v>0.8933911090573212</v>
+      </c>
+      <c r="G95">
+        <v>0.04455232100081215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.187285002954756</v>
+        <v>-0.1842695304646011</v>
       </c>
       <c r="C98">
-        <v>0.0312438023401303</v>
+        <v>0.0493500756323851</v>
       </c>
       <c r="D98">
-        <v>0.2230922581558466</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2025573965846316</v>
+      </c>
+      <c r="E98">
+        <v>0.179855983939633</v>
+      </c>
+      <c r="F98">
+        <v>-0.1229468141736437</v>
+      </c>
+      <c r="G98">
+        <v>-0.01428430034556296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01176847333143946</v>
+        <v>-0.008743810328156205</v>
       </c>
       <c r="C101">
-        <v>0.03009765926238958</v>
+        <v>0.02758237038422325</v>
       </c>
       <c r="D101">
-        <v>0.004439028457856344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04180383221017411</v>
+      </c>
+      <c r="E101">
+        <v>-0.07918653012558907</v>
+      </c>
+      <c r="F101">
+        <v>0.005994611256811926</v>
+      </c>
+      <c r="G101">
+        <v>-0.05905482822473181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.119881933562249</v>
+        <v>-0.1222976485790403</v>
       </c>
       <c r="C102">
-        <v>0.06535514048789437</v>
+        <v>0.09894457971808944</v>
       </c>
       <c r="D102">
-        <v>-0.05832012424354711</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06233733127807577</v>
+      </c>
+      <c r="E102">
+        <v>0.0007651541996921115</v>
+      </c>
+      <c r="F102">
+        <v>0.02777441533676426</v>
+      </c>
+      <c r="G102">
+        <v>-0.04837279951985731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
